--- a/xlsx/泰晤士高等教育_intext.xlsx
+++ b/xlsx/泰晤士高等教育_intext.xlsx
@@ -29,7 +29,7 @@
     <t>高等教育</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_泰晤士高等教育</t>
+    <t>政策_政策_维基百科_泰晤士高等教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -83,13 +83,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A4%A7%E5%AD%B8%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>世界大學排名</t>
+    <t>世界大学排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E6%99%A4%E5%A3%AB%E9%AB%98%E7%AD%89%E6%95%99%E8%82%B2%E4%B8%96%E7%95%8C%E5%A4%A7%E5%AD%B8%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>泰晤士高等教育世界大學排名</t>
+    <t>泰晤士高等教育世界大学排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/QS%E4%B8%96%E7%95%8C%E5%A4%A7%E5%AD%A6%E6%8E%92%E5%90%8D</t>
@@ -113,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>大學排名</t>
+    <t>大学排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/QS%E4%BA%9E%E6%B4%B2%E5%A4%A7%E5%AD%B8%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>QS亞洲大學排名</t>
+    <t>QS亚洲大学排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E6%99%A4%E5%A3%AB%E9%AB%98%E7%AD%89%E6%95%99%E8%82%B2-QS%E4%B8%96%E7%95%8C%E5%A4%A7%E5%AD%A6%E6%8E%92%E5%90%8D</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%A4%A7%E5%AD%B8%E6%8E%92%E5%90%8D%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>Template talk-大學排名系統</t>
+    <t>Template talk-大学排名系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E5%A4%A7%E4%B8%AD%E5%9C%8B%E5%A4%A7%E5%AD%B8%E6%8E%92%E8%A1%8C%E6%A6%9C</t>
   </si>
   <si>
-    <t>網大中國大學排行榜</t>
+    <t>网大中国大学排行榜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E6%B0%91%E5%9B%BD</t>
@@ -221,13 +221,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A4%A7%E5%AD%B8%E6%8E%92%E5%90%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>世界大學排名列表</t>
+    <t>世界大学排名列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A4%A7%E5%AD%B8%E7%B6%B2%E8%B7%AF%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>世界大學網路排名</t>
+    <t>世界大学网路排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E7%90%83%E5%A4%A7%E5%AD%A6%E6%8E%92%E5%90%8D_(2003)</t>
